--- a/biology/Zoologie/Climène/Climène.xlsx
+++ b/biology/Zoologie/Climène/Climène.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Clim%C3%A8ne</t>
+          <t>Climène</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Kirinia climene
 Le Climène (Kirinia climene) est une espèce de lépidoptères de la sous-famille des Satyrinae (famille des Nymphalidae).
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Clim%C3%A8ne</t>
+          <t>Climène</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,17 +524,14 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Kirinia climene (Esper, 1783)[1].
-L'espèce a été initialement classée dans le genre Papilio sous le protonyme Papilio climene Esper, 1783[1].
-Kirinia climene a pour synonyme[1] :
-Papilio climene Esper, 1783
-Noms vernaculaires
-Le Climène se nomme Lesser Lattice Brown en anglais, Κλυμένη en grec et Kaya Esmeri en turc.
-Sous-espèce
-Kirinia climene roxandra (Herrich-Schäffer, [1850])
-</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le nom valide complet (avec auteur) de ce taxon est Kirinia climene (Esper, 1783).
+L'espèce a été initialement classée dans le genre Papilio sous le protonyme Papilio climene Esper, 1783.
+Kirinia climene a pour synonyme :
+Papilio climene Esper, 1783</t>
         </is>
       </c>
     </row>
@@ -532,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Clim%C3%A8ne</t>
+          <t>Climène</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,15 +556,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Le Climène est un papillon de taille moyenne aux antérieures de couleur orangée largement bordées de marron clair avec un ocelle orange pupillé de noir à l'apex alors que les postérieures sont marron clair avec des taches orange, certaines centrées d'un ocelle aveugle noir formant une bande submarginale incomplète.
-Le verso des antérieures est semblable, orange très largement bordé de marron clair avec un ocelle noir cerné de jaune à l'apex, alors que les ailes postérieures sont de couleur  beige grisé terne, ornées d'une ligne d'ocelles noirs cerclés d'ocre.
-Chenille
-La chenille est vert clair, longue, prolongée de queues et portant deux cornes sur la tête[2].
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Climène se nomme Lesser Lattice Brown en anglais, Κλυμένη en grec et Kaya Esmeri en turc.
 </t>
         </is>
       </c>
@@ -566,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Clim%C3%A8ne</t>
+          <t>Climène</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,15 +593,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Période de vol et hivernation
-Le Climène vole en une génération entre mi-juin et fin juillet[2].
-Plantes hôtes
-Les plantes hôtes de sa chenille sont diverses graminées, dont Poa annua[3].
+          <t>Sous-espèce</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kirinia climene roxandra (Herrich-Schäffer, )
 </t>
         </is>
       </c>
@@ -600,7 +615,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Clim%C3%A8ne</t>
+          <t>Climène</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -615,16 +630,233 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Climène est un papillon de taille moyenne aux antérieures de couleur orangée largement bordées de marron clair avec un ocelle orange pupillé de noir à l'apex alors que les postérieures sont marron clair avec des taches orange, certaines centrées d'un ocelle aveugle noir formant une bande submarginale incomplète.
+Le verso des antérieures est semblable, orange très largement bordé de marron clair avec un ocelle noir cerné de jaune à l'apex, alors que les ailes postérieures sont de couleur  beige grisé terne, ornées d'une ligne d'ocelles noirs cerclés d'ocre.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Climène</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clim%C3%A8ne</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Chenille</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La chenille est vert clair, longue, prolongée de queues et portant deux cornes sur la tête.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Climène</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clim%C3%A8ne</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Climène vole en une génération entre mi-juin et fin juillet.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Climène</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clim%C3%A8ne</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de sa chenille sont diverses graminées, dont Poa annua.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Climène</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clim%C3%A8ne</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Climène est présent sous forme de petits isolats dans le sud-est de l'Europe, en Serbie, Albanie, Roumanie, Bulgarie, Macédoine et Grèce, au Moyen-Orient en Turquie, Syrie, Irak, Iran et dans le Sud de la Russie[2],[3].
-Biotope
-Le Climène réside dans des clairières buissonneuses.
-Protection
-Pas de statut de protection particulier[4].
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Climène est présent sous forme de petits isolats dans le sud-est de l'Europe, en Serbie, Albanie, Roumanie, Bulgarie, Macédoine et Grèce, au Moyen-Orient en Turquie, Syrie, Irak, Iran et dans le Sud de la Russie,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Climène</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clim%C3%A8ne</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Climène réside dans des clairières buissonneuses.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Climène</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clim%C3%A8ne</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
